--- a/param_files/hiv_param_gen/hiv_input_gen_data.xlsx
+++ b/param_files/hiv_param_gen/hiv_input_gen_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chelseagreene/github/epi_model_HIV_TB/param_files/hiv_param_gen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224357E3-E4F7-C744-A98E-B585B6BF8391}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3BC27EC-0AC2-FF47-BB98-5ADBBFD5701C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12100" yWindow="500" windowWidth="23740" windowHeight="19840" xr2:uid="{245E17E2-FF17-6349-AC56-58836A51DAF9}"/>
+    <workbookView xWindow="1760" yWindow="500" windowWidth="23740" windowHeight="19840" xr2:uid="{245E17E2-FF17-6349-AC56-58836A51DAF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -522,7 +522,7 @@
   <dimension ref="A1:P63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -618,15 +618,15 @@
         <v>0.94131848133461526</v>
       </c>
       <c r="L2" s="17">
-        <f>($J2)*(E2+F2)</f>
+        <f t="shared" ref="L2:L33" si="0">($J2)*(E2+F2)</f>
         <v>5.3682697043577983E-2</v>
       </c>
       <c r="M2" s="17">
-        <f>($J2)*H2</f>
+        <f t="shared" ref="M2:M33" si="1">($J2)*H2</f>
         <v>4.9988216218067325E-3</v>
       </c>
       <c r="N2" s="17">
-        <f>($J2)*I2</f>
+        <f t="shared" ref="N2:N33" si="2">($J2)*I2</f>
         <v>0</v>
       </c>
       <c r="O2" s="18">
@@ -643,7 +643,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="str">
-        <f t="shared" ref="C3:C59" si="0">CONCATENATE(A3,"_",B3)</f>
+        <f t="shared" ref="C3:C59" si="3">CONCATENATE(A3,"_",B3)</f>
         <v>1991_Males</v>
       </c>
       <c r="D3" s="1">
@@ -656,7 +656,7 @@
         <v>0.264944741047551</v>
       </c>
       <c r="G3" s="16">
-        <f t="shared" ref="G3:G59" si="1">E3+F3</f>
+        <f t="shared" ref="G3:G59" si="4">E3+F3</f>
         <v>0.90750697542066705</v>
       </c>
       <c r="H3" s="15">
@@ -669,23 +669,23 @@
         <v>7.4061313544296695E-2</v>
       </c>
       <c r="K3" s="17">
-        <f t="shared" ref="K3:K59" si="2">1-J3</f>
+        <f t="shared" ref="K3:K59" si="5">1-J3</f>
         <v>0.92593868645570332</v>
       </c>
       <c r="L3" s="17">
-        <f>($J3)*(E3+F3)</f>
+        <f t="shared" si="0"/>
         <v>6.7211158650266375E-2</v>
       </c>
       <c r="M3" s="17">
-        <f>($J3)*H3</f>
+        <f t="shared" si="1"/>
         <v>6.8501548940303001E-3</v>
       </c>
       <c r="N3" s="17">
-        <f>($J3)*I3</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O3" s="18">
-        <f t="shared" ref="O3:O59" si="3">IF(A3&lt;2011,0,IF(A3&lt;2016,F3/G3,1))</f>
+        <f t="shared" ref="O3:O59" si="6">IF(A3&lt;2011,0,IF(A3&lt;2016,F3/G3,1))</f>
         <v>0</v>
       </c>
     </row>
@@ -697,7 +697,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1992_Males</v>
       </c>
       <c r="D4" s="1">
@@ -710,7 +710,7 @@
         <v>0.27630967475892798</v>
       </c>
       <c r="G4" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.89897741371172502</v>
       </c>
       <c r="H4" s="15">
@@ -723,23 +723,23 @@
         <v>9.0639806830562705E-2</v>
       </c>
       <c r="K4" s="17">
+        <f t="shared" si="5"/>
+        <v>0.90936019316943728</v>
+      </c>
+      <c r="L4" s="17">
+        <f t="shared" si="0"/>
+        <v>8.1483139123869605E-2</v>
+      </c>
+      <c r="M4" s="17">
+        <f t="shared" si="1"/>
+        <v>9.1566677066931886E-3</v>
+      </c>
+      <c r="N4" s="17">
         <f t="shared" si="2"/>
-        <v>0.90936019316943728</v>
-      </c>
-      <c r="L4" s="17">
-        <f>($J4)*(E4+F4)</f>
-        <v>8.1483139123869605E-2</v>
-      </c>
-      <c r="M4" s="17">
-        <f>($J4)*H4</f>
-        <v>9.1566677066931886E-3</v>
-      </c>
-      <c r="N4" s="17">
-        <f>($J4)*I4</f>
         <v>0</v>
       </c>
       <c r="O4" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -751,7 +751,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1993_Males</v>
       </c>
       <c r="D5" s="1">
@@ -764,7 +764,7 @@
         <v>0.28718661836424397</v>
       </c>
       <c r="G5" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.88962284958044002</v>
       </c>
       <c r="H5" s="15">
@@ -777,23 +777,23 @@
         <v>0.107946763865782</v>
       </c>
       <c r="K5" s="17">
+        <f t="shared" si="5"/>
+        <v>0.89205323613421794</v>
+      </c>
+      <c r="L5" s="17">
+        <f t="shared" si="0"/>
+        <v>9.6031907673263861E-2</v>
+      </c>
+      <c r="M5" s="17">
+        <f t="shared" si="1"/>
+        <v>1.1914856192518253E-2</v>
+      </c>
+      <c r="N5" s="17">
         <f t="shared" si="2"/>
-        <v>0.89205323613421794</v>
-      </c>
-      <c r="L5" s="17">
-        <f>($J5)*(E5+F5)</f>
-        <v>9.6031907673263861E-2</v>
-      </c>
-      <c r="M5" s="17">
-        <f>($J5)*H5</f>
-        <v>1.1914856192518253E-2</v>
-      </c>
-      <c r="N5" s="17">
-        <f>($J5)*I5</f>
         <v>0</v>
       </c>
       <c r="O5" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -805,7 +805,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1994_Males</v>
       </c>
       <c r="D6" s="1">
@@ -818,7 +818,7 @@
         <v>0.29722766801158401</v>
       </c>
       <c r="G6" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.87978974988389091</v>
       </c>
       <c r="H6" s="15">
@@ -831,23 +831,23 @@
         <v>0.125531973527755</v>
       </c>
       <c r="K6" s="17">
+        <f t="shared" si="5"/>
+        <v>0.87446802647224497</v>
+      </c>
+      <c r="L6" s="17">
+        <f t="shared" si="0"/>
+        <v>0.11044174359241478</v>
+      </c>
+      <c r="M6" s="17">
+        <f t="shared" si="1"/>
+        <v>1.5090229935340328E-2</v>
+      </c>
+      <c r="N6" s="17">
         <f t="shared" si="2"/>
-        <v>0.87446802647224497</v>
-      </c>
-      <c r="L6" s="17">
-        <f>($J6)*(E6+F6)</f>
-        <v>0.11044174359241478</v>
-      </c>
-      <c r="M6" s="17">
-        <f>($J6)*H6</f>
-        <v>1.5090229935340328E-2</v>
-      </c>
-      <c r="N6" s="17">
-        <f>($J6)*I6</f>
         <v>0</v>
       </c>
       <c r="O6" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -859,7 +859,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1995_Males</v>
       </c>
       <c r="D7" s="1">
@@ -872,7 +872,7 @@
         <v>0.30626304693542999</v>
       </c>
       <c r="G7" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.86976385804839595</v>
       </c>
       <c r="H7" s="15">
@@ -885,23 +885,23 @@
         <v>0.14299324336348002</v>
       </c>
       <c r="K7" s="17">
+        <f t="shared" si="5"/>
+        <v>0.85700675663652004</v>
+      </c>
+      <c r="L7" s="17">
+        <f t="shared" si="0"/>
+        <v>0.12437035502267357</v>
+      </c>
+      <c r="M7" s="17">
+        <f t="shared" si="1"/>
+        <v>1.8622888340806439E-2</v>
+      </c>
+      <c r="N7" s="17">
         <f t="shared" si="2"/>
-        <v>0.85700675663652004</v>
-      </c>
-      <c r="L7" s="17">
-        <f>($J7)*(E7+F7)</f>
-        <v>0.12437035502267357</v>
-      </c>
-      <c r="M7" s="17">
-        <f>($J7)*H7</f>
-        <v>1.8622888340806439E-2</v>
-      </c>
-      <c r="N7" s="17">
-        <f>($J7)*I7</f>
         <v>0</v>
       </c>
       <c r="O7" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -913,7 +913,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1996_Males</v>
       </c>
       <c r="D8" s="1">
@@ -926,7 +926,7 @@
         <v>0.31597882964588903</v>
       </c>
       <c r="G8" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.85892310221625601</v>
       </c>
       <c r="H8" s="15">
@@ -939,23 +939,23 @@
         <v>0.15900658163490899</v>
       </c>
       <c r="K8" s="17">
+        <f t="shared" si="5"/>
+        <v>0.84099341836509101</v>
+      </c>
+      <c r="L8" s="17">
+        <f t="shared" si="0"/>
+        <v>0.13657442637065839</v>
+      </c>
+      <c r="M8" s="17">
+        <f t="shared" si="1"/>
+        <v>2.2432155264250443E-2</v>
+      </c>
+      <c r="N8" s="17">
         <f t="shared" si="2"/>
-        <v>0.84099341836509101</v>
-      </c>
-      <c r="L8" s="17">
-        <f>($J8)*(E8+F8)</f>
-        <v>0.13657442637065839</v>
-      </c>
-      <c r="M8" s="17">
-        <f>($J8)*H8</f>
-        <v>2.2432155264250443E-2</v>
-      </c>
-      <c r="N8" s="17">
-        <f>($J8)*I8</f>
         <v>0</v>
       </c>
       <c r="O8" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -967,7 +967,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1997_Males</v>
       </c>
       <c r="D9" s="1">
@@ -980,7 +980,7 @@
         <v>0.32627904509254801</v>
       </c>
       <c r="G9" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.84694156249282004</v>
       </c>
       <c r="H9" s="15">
@@ -993,23 +993,23 @@
         <v>0.17250780495914297</v>
       </c>
       <c r="K9" s="17">
+        <f t="shared" si="5"/>
+        <v>0.82749219504085703</v>
+      </c>
+      <c r="L9" s="17">
+        <f t="shared" si="0"/>
+        <v>0.14610402987430321</v>
+      </c>
+      <c r="M9" s="17">
+        <f t="shared" si="1"/>
+        <v>2.6403775084839782E-2</v>
+      </c>
+      <c r="N9" s="17">
         <f t="shared" si="2"/>
-        <v>0.82749219504085703</v>
-      </c>
-      <c r="L9" s="17">
-        <f>($J9)*(E9+F9)</f>
-        <v>0.14610402987430321</v>
-      </c>
-      <c r="M9" s="17">
-        <f>($J9)*H9</f>
-        <v>2.6403775084839782E-2</v>
-      </c>
-      <c r="N9" s="17">
-        <f>($J9)*I9</f>
         <v>0</v>
       </c>
       <c r="O9" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -1021,7 +1021,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1998_Males</v>
       </c>
       <c r="D10" s="1">
@@ -1034,7 +1034,7 @@
         <v>0.33574098461685897</v>
       </c>
       <c r="G10" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.83431048611443703</v>
       </c>
       <c r="H10" s="15">
@@ -1047,23 +1047,23 @@
         <v>0.18336697649842701</v>
       </c>
       <c r="K10" s="17">
+        <f t="shared" si="5"/>
+        <v>0.81663302350157296</v>
+      </c>
+      <c r="L10" s="17">
+        <f t="shared" si="0"/>
+        <v>0.15298499129973719</v>
+      </c>
+      <c r="M10" s="17">
+        <f t="shared" si="1"/>
+        <v>3.0381985198689825E-2</v>
+      </c>
+      <c r="N10" s="17">
         <f t="shared" si="2"/>
-        <v>0.81663302350157296</v>
-      </c>
-      <c r="L10" s="17">
-        <f>($J10)*(E10+F10)</f>
-        <v>0.15298499129973719</v>
-      </c>
-      <c r="M10" s="17">
-        <f>($J10)*H10</f>
-        <v>3.0381985198689825E-2</v>
-      </c>
-      <c r="N10" s="17">
-        <f>($J10)*I10</f>
         <v>0</v>
       </c>
       <c r="O10" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -1075,7 +1075,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1999_Males</v>
       </c>
       <c r="D11" s="1">
@@ -1088,7 +1088,7 @@
         <v>0.34388818194153897</v>
       </c>
       <c r="G11" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.82145906488073694</v>
       </c>
       <c r="H11" s="15">
@@ -1101,23 +1101,23 @@
         <v>0.191557847585066</v>
       </c>
       <c r="K11" s="17">
+        <f t="shared" si="5"/>
+        <v>0.808442152414934</v>
+      </c>
+      <c r="L11" s="17">
+        <f t="shared" si="0"/>
+        <v>0.15735693034779505</v>
+      </c>
+      <c r="M11" s="17">
+        <f t="shared" si="1"/>
+        <v>3.4200917237270936E-2</v>
+      </c>
+      <c r="N11" s="17">
         <f t="shared" si="2"/>
-        <v>0.808442152414934</v>
-      </c>
-      <c r="L11" s="17">
-        <f>($J11)*(E11+F11)</f>
-        <v>0.15735693034779505</v>
-      </c>
-      <c r="M11" s="17">
-        <f>($J11)*H11</f>
-        <v>3.4200917237270936E-2</v>
-      </c>
-      <c r="N11" s="17">
-        <f>($J11)*I11</f>
         <v>0</v>
       </c>
       <c r="O11" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -1129,7 +1129,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2000_Males</v>
       </c>
       <c r="D12" s="1">
@@ -1142,7 +1142,7 @@
         <v>0.35062480877787999</v>
       </c>
       <c r="G12" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.80873105935081702</v>
       </c>
       <c r="H12" s="15">
@@ -1155,23 +1155,23 @@
         <v>0.19716898272487199</v>
       </c>
       <c r="K12" s="17">
+        <f t="shared" si="5"/>
+        <v>0.80283101727512807</v>
+      </c>
+      <c r="L12" s="17">
+        <f t="shared" si="0"/>
+        <v>0.15945668027020865</v>
+      </c>
+      <c r="M12" s="17">
+        <f t="shared" si="1"/>
+        <v>3.7712302454663331E-2</v>
+      </c>
+      <c r="N12" s="17">
         <f t="shared" si="2"/>
-        <v>0.80283101727512807</v>
-      </c>
-      <c r="L12" s="17">
-        <f>($J12)*(E12+F12)</f>
-        <v>0.15945668027020865</v>
-      </c>
-      <c r="M12" s="17">
-        <f>($J12)*H12</f>
-        <v>3.7712302454663331E-2</v>
-      </c>
-      <c r="N12" s="17">
-        <f>($J12)*I12</f>
         <v>0</v>
       </c>
       <c r="O12" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2001_Males</v>
       </c>
       <c r="D13" s="1">
@@ -1196,7 +1196,7 @@
         <v>0.35429038229465898</v>
       </c>
       <c r="G13" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.79748791613828396</v>
       </c>
       <c r="H13" s="15">
@@ -1209,23 +1209,23 @@
         <v>0.20150084891404901</v>
       </c>
       <c r="K13" s="17">
+        <f t="shared" si="5"/>
+        <v>0.79849915108595093</v>
+      </c>
+      <c r="L13" s="17">
+        <f t="shared" si="0"/>
+        <v>0.16069449210056014</v>
+      </c>
+      <c r="M13" s="17">
+        <f t="shared" si="1"/>
+        <v>4.0806356813488862E-2</v>
+      </c>
+      <c r="N13" s="17">
         <f t="shared" si="2"/>
-        <v>0.79849915108595093</v>
-      </c>
-      <c r="L13" s="17">
-        <f>($J13)*(E13+F13)</f>
-        <v>0.16069449210056014</v>
-      </c>
-      <c r="M13" s="17">
-        <f>($J13)*H13</f>
-        <v>4.0806356813488862E-2</v>
-      </c>
-      <c r="N13" s="17">
-        <f>($J13)*I13</f>
         <v>0</v>
       </c>
       <c r="O13" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2002_Males</v>
       </c>
       <c r="D14" s="1">
@@ -1250,7 +1250,7 @@
         <v>0.355473086519555</v>
       </c>
       <c r="G14" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.78830526638201492</v>
       </c>
       <c r="H14" s="15">
@@ -1263,23 +1263,23 @@
         <v>0.20517458802758001</v>
       </c>
       <c r="K14" s="17">
+        <f t="shared" si="5"/>
+        <v>0.79482541197241996</v>
+      </c>
+      <c r="L14" s="17">
+        <f t="shared" si="0"/>
+        <v>0.16174020826990163</v>
+      </c>
+      <c r="M14" s="17">
+        <f t="shared" si="1"/>
+        <v>4.3434379757678367E-2</v>
+      </c>
+      <c r="N14" s="17">
         <f t="shared" si="2"/>
-        <v>0.79482541197241996</v>
-      </c>
-      <c r="L14" s="17">
-        <f>($J14)*(E14+F14)</f>
-        <v>0.16174020826990163</v>
-      </c>
-      <c r="M14" s="17">
-        <f>($J14)*H14</f>
-        <v>4.3434379757678367E-2</v>
-      </c>
-      <c r="N14" s="17">
-        <f>($J14)*I14</f>
         <v>0</v>
       </c>
       <c r="O14" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -1291,7 +1291,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2003_Males</v>
       </c>
       <c r="D15" s="1">
@@ -1304,7 +1304,7 @@
         <v>0.35548898032979198</v>
       </c>
       <c r="G15" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.78099187007944293</v>
       </c>
       <c r="H15" s="15">
@@ -1317,23 +1317,23 @@
         <v>0.20827437256599601</v>
       </c>
       <c r="K15" s="17">
+        <f t="shared" si="5"/>
+        <v>0.79172562743400399</v>
+      </c>
+      <c r="L15" s="17">
+        <f t="shared" si="0"/>
+        <v>0.16266059171993985</v>
+      </c>
+      <c r="M15" s="17">
+        <f t="shared" si="1"/>
+        <v>4.5613780846056141E-2</v>
+      </c>
+      <c r="N15" s="17">
         <f t="shared" si="2"/>
-        <v>0.79172562743400399</v>
-      </c>
-      <c r="L15" s="17">
-        <f>($J15)*(E15+F15)</f>
-        <v>0.16266059171993985</v>
-      </c>
-      <c r="M15" s="17">
-        <f>($J15)*H15</f>
-        <v>4.5613780846056141E-2</v>
-      </c>
-      <c r="N15" s="17">
-        <f>($J15)*I15</f>
         <v>0</v>
       </c>
       <c r="O15" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -1345,7 +1345,7 @@
         <v>2</v>
       </c>
       <c r="C16" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2004_Males</v>
       </c>
       <c r="D16" s="1">
@@ -1358,7 +1358,7 @@
         <v>0.354994796656385</v>
       </c>
       <c r="G16" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.77503937874389894</v>
       </c>
       <c r="H16" s="15">
@@ -1371,23 +1371,23 @@
         <v>0.21090940515302598</v>
       </c>
       <c r="K16" s="17">
+        <f t="shared" si="5"/>
+        <v>0.78909059484697397</v>
+      </c>
+      <c r="L16" s="17">
+        <f t="shared" si="0"/>
+        <v>0.16346309434104653</v>
+      </c>
+      <c r="M16" s="17">
+        <f t="shared" si="1"/>
+        <v>4.6941277776814547E-2</v>
+      </c>
+      <c r="N16" s="17">
         <f t="shared" si="2"/>
-        <v>0.78909059484697397</v>
-      </c>
-      <c r="L16" s="17">
-        <f>($J16)*(E16+F16)</f>
-        <v>0.16346309434104653</v>
-      </c>
-      <c r="M16" s="17">
-        <f>($J16)*H16</f>
-        <v>4.6941277776814547E-2</v>
-      </c>
-      <c r="N16" s="17">
-        <f>($J16)*I16</f>
         <v>5.0503303516500643E-4</v>
       </c>
       <c r="O16" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -1399,7 +1399,7 @@
         <v>2</v>
       </c>
       <c r="C17" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2005_Males</v>
       </c>
       <c r="D17" s="1">
@@ -1412,7 +1412,7 @@
         <v>0.35413573197367798</v>
       </c>
       <c r="G17" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.76925958477637901</v>
       </c>
       <c r="H17" s="15">
@@ -1425,23 +1425,23 @@
         <v>0.21321919323032801</v>
       </c>
       <c r="K17" s="17">
+        <f t="shared" si="5"/>
+        <v>0.78678080676967199</v>
+      </c>
+      <c r="L17" s="17">
+        <f t="shared" si="0"/>
+        <v>0.16402090805071665</v>
+      </c>
+      <c r="M17" s="17">
+        <f t="shared" si="1"/>
+        <v>4.6826562681935295E-2</v>
+      </c>
+      <c r="N17" s="17">
         <f t="shared" si="2"/>
-        <v>0.78678080676967199</v>
-      </c>
-      <c r="L17" s="17">
-        <f>($J17)*(E17+F17)</f>
-        <v>0.16402090805071665</v>
-      </c>
-      <c r="M17" s="17">
-        <f>($J17)*H17</f>
-        <v>4.6826562681935295E-2</v>
-      </c>
-      <c r="N17" s="17">
-        <f>($J17)*I17</f>
         <v>2.3717224976763222E-3</v>
       </c>
       <c r="O17" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -1453,7 +1453,7 @@
         <v>2</v>
       </c>
       <c r="C18" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2006_Males</v>
       </c>
       <c r="D18" s="1">
@@ -1466,7 +1466,7 @@
         <v>0.35272039400032301</v>
       </c>
       <c r="G18" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.76205624525068605</v>
       </c>
       <c r="H18" s="15">
@@ -1479,23 +1479,23 @@
         <v>0.215335328189658</v>
       </c>
       <c r="K18" s="17">
+        <f t="shared" si="5"/>
+        <v>0.78466467181034205</v>
+      </c>
+      <c r="L18" s="17">
+        <f t="shared" si="0"/>
+        <v>0.16409763167003499</v>
+      </c>
+      <c r="M18" s="17">
+        <f t="shared" si="1"/>
+        <v>4.5158194668668931E-2</v>
+      </c>
+      <c r="N18" s="17">
         <f t="shared" si="2"/>
-        <v>0.78466467181034205</v>
-      </c>
-      <c r="L18" s="17">
-        <f>($J18)*(E18+F18)</f>
-        <v>0.16409763167003499</v>
-      </c>
-      <c r="M18" s="17">
-        <f>($J18)*H18</f>
-        <v>4.5158194668668931E-2</v>
-      </c>
-      <c r="N18" s="17">
-        <f>($J18)*I18</f>
         <v>6.0795018509541832E-3</v>
       </c>
       <c r="O18" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -1507,7 +1507,7 @@
         <v>2</v>
       </c>
       <c r="C19" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2007_Males</v>
       </c>
       <c r="D19" s="1">
@@ -1520,7 +1520,7 @@
         <v>0.350408573500748</v>
       </c>
       <c r="G19" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.75207808779227103</v>
       </c>
       <c r="H19" s="15">
@@ -1533,23 +1533,23 @@
         <v>0.21734711419824801</v>
       </c>
       <c r="K19" s="17">
+        <f t="shared" si="5"/>
+        <v>0.78265288580175196</v>
+      </c>
+      <c r="L19" s="17">
+        <f t="shared" si="0"/>
+        <v>0.16346200203338673</v>
+      </c>
+      <c r="M19" s="17">
+        <f t="shared" si="1"/>
+        <v>4.2205629809996523E-2</v>
+      </c>
+      <c r="N19" s="17">
         <f t="shared" si="2"/>
-        <v>0.78265288580175196</v>
-      </c>
-      <c r="L19" s="17">
-        <f>($J19)*(E19+F19)</f>
-        <v>0.16346200203338673</v>
-      </c>
-      <c r="M19" s="17">
-        <f>($J19)*H19</f>
-        <v>4.2205629809996523E-2</v>
-      </c>
-      <c r="N19" s="17">
-        <f>($J19)*I19</f>
         <v>1.1679482354864731E-2</v>
       </c>
       <c r="O19" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -1561,7 +1561,7 @@
         <v>2</v>
       </c>
       <c r="C20" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2008_Males</v>
       </c>
       <c r="D20" s="1">
@@ -1574,7 +1574,7 @@
         <v>0.34692479441563601</v>
       </c>
       <c r="G20" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.73876628676901701</v>
       </c>
       <c r="H20" s="15">
@@ -1587,23 +1587,23 @@
         <v>0.21927205995182197</v>
       </c>
       <c r="K20" s="17">
+        <f t="shared" si="5"/>
+        <v>0.78072794004817803</v>
+      </c>
+      <c r="L20" s="17">
+        <f t="shared" si="0"/>
+        <v>0.16199080552280079</v>
+      </c>
+      <c r="M20" s="17">
+        <f t="shared" si="1"/>
+        <v>3.8989166319543959E-2</v>
+      </c>
+      <c r="N20" s="17">
         <f t="shared" si="2"/>
-        <v>0.78072794004817803</v>
-      </c>
-      <c r="L20" s="17">
-        <f>($J20)*(E20+F20)</f>
-        <v>0.16199080552280079</v>
-      </c>
-      <c r="M20" s="17">
-        <f>($J20)*H20</f>
-        <v>3.8989166319543959E-2</v>
-      </c>
-      <c r="N20" s="17">
-        <f>($J20)*I20</f>
         <v>1.8292088109477276E-2</v>
       </c>
       <c r="O20" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -1615,7 +1615,7 @@
         <v>2</v>
       </c>
       <c r="C21" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2009_Males</v>
       </c>
       <c r="D21" s="1">
@@ -1628,7 +1628,7 @@
         <v>0.34231470390167901</v>
       </c>
       <c r="G21" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.722837681744949</v>
       </c>
       <c r="H21" s="15">
@@ -1641,23 +1641,23 @@
         <v>0.22101213499368502</v>
       </c>
       <c r="K21" s="17">
+        <f t="shared" si="5"/>
+        <v>0.77898786500631501</v>
+      </c>
+      <c r="L21" s="17">
+        <f t="shared" si="0"/>
+        <v>0.15975589929633699</v>
+      </c>
+      <c r="M21" s="17">
+        <f t="shared" si="1"/>
+        <v>3.6566941929395386E-2</v>
+      </c>
+      <c r="N21" s="17">
         <f t="shared" si="2"/>
-        <v>0.77898786500631501</v>
-      </c>
-      <c r="L21" s="17">
-        <f>($J21)*(E21+F21)</f>
-        <v>0.15975589929633699</v>
-      </c>
-      <c r="M21" s="17">
-        <f>($J21)*H21</f>
-        <v>3.6566941929395386E-2</v>
-      </c>
-      <c r="N21" s="17">
-        <f>($J21)*I21</f>
         <v>2.4689293767952415E-2</v>
       </c>
       <c r="O21" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -1669,7 +1669,7 @@
         <v>2</v>
       </c>
       <c r="C22" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2010_Males</v>
       </c>
       <c r="D22" s="1">
@@ -1682,7 +1682,7 @@
         <v>0.33675441892304597</v>
       </c>
       <c r="G22" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.70525710155181798</v>
       </c>
       <c r="H22" s="15">
@@ -1695,23 +1695,23 @@
         <v>0.22247287719891598</v>
       </c>
       <c r="K22" s="17">
+        <f t="shared" si="5"/>
+        <v>0.77752712280108405</v>
+      </c>
+      <c r="L22" s="17">
+        <f t="shared" si="0"/>
+        <v>0.15690057654720102</v>
+      </c>
+      <c r="M22" s="17">
+        <f t="shared" si="1"/>
+        <v>3.4180870920913736E-2</v>
+      </c>
+      <c r="N22" s="17">
         <f t="shared" si="2"/>
-        <v>0.77752712280108405</v>
-      </c>
-      <c r="L22" s="17">
-        <f>($J22)*(E22+F22)</f>
-        <v>0.15690057654720102</v>
-      </c>
-      <c r="M22" s="17">
-        <f>($J22)*H22</f>
-        <v>3.4180870920913736E-2</v>
-      </c>
-      <c r="N22" s="17">
-        <f>($J22)*I22</f>
         <v>3.1391429730801224E-2</v>
       </c>
       <c r="O22" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -1723,7 +1723,7 @@
         <v>2</v>
       </c>
       <c r="C23" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2011_Males</v>
       </c>
       <c r="D23" s="1">
@@ -1736,7 +1736,7 @@
         <v>0.32512140083506103</v>
       </c>
       <c r="G23" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.6809842204973211</v>
       </c>
       <c r="H23" s="15">
@@ -1749,23 +1749,23 @@
         <v>0.22367434736407699</v>
       </c>
       <c r="K23" s="17">
+        <f t="shared" si="5"/>
+        <v>0.77632565263592301</v>
+      </c>
+      <c r="L23" s="17">
+        <f t="shared" si="0"/>
+        <v>0.152318701084973</v>
+      </c>
+      <c r="M23" s="17">
+        <f t="shared" si="1"/>
+        <v>3.2461635347007106E-2</v>
+      </c>
+      <c r="N23" s="17">
         <f t="shared" si="2"/>
-        <v>0.77632565263592301</v>
-      </c>
-      <c r="L23" s="17">
-        <f>($J23)*(E23+F23)</f>
-        <v>0.152318701084973</v>
-      </c>
-      <c r="M23" s="17">
-        <f>($J23)*H23</f>
-        <v>3.2461635347007106E-2</v>
-      </c>
-      <c r="N23" s="17">
-        <f>($J23)*I23</f>
         <v>3.8894010932096899E-2</v>
       </c>
       <c r="O23" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.47742868490789064</v>
       </c>
     </row>
@@ -1777,7 +1777,7 @@
         <v>2</v>
       </c>
       <c r="C24" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2012_Males</v>
       </c>
       <c r="D24" s="1">
@@ -1790,7 +1790,7 @@
         <v>0.29433940466276298</v>
       </c>
       <c r="G24" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.63656842982706496</v>
       </c>
       <c r="H24" s="15">
@@ -1803,23 +1803,23 @@
         <v>0.22361335853707501</v>
       </c>
       <c r="K24" s="17">
+        <f t="shared" si="5"/>
+        <v>0.77638664146292502</v>
+      </c>
+      <c r="L24" s="17">
+        <f t="shared" si="0"/>
+        <v>0.14234520453230234</v>
+      </c>
+      <c r="M24" s="17">
+        <f t="shared" si="1"/>
+        <v>3.3992076719402853E-2</v>
+      </c>
+      <c r="N24" s="17">
         <f t="shared" si="2"/>
-        <v>0.77638664146292502</v>
-      </c>
-      <c r="L24" s="17">
-        <f>($J24)*(E24+F24)</f>
-        <v>0.14234520453230234</v>
-      </c>
-      <c r="M24" s="17">
-        <f>($J24)*H24</f>
-        <v>3.3992076719402853E-2</v>
-      </c>
-      <c r="N24" s="17">
-        <f>($J24)*I24</f>
         <v>4.727607728536979E-2</v>
       </c>
       <c r="O24" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.46238454637583187</v>
       </c>
     </row>
@@ -1831,7 +1831,7 @@
         <v>2</v>
       </c>
       <c r="C25" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2013_Males</v>
       </c>
       <c r="D25" s="1">
@@ -1844,7 +1844,7 @@
         <v>0.27162382706640298</v>
       </c>
       <c r="G25" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.59879906014428397</v>
       </c>
       <c r="H25" s="15">
@@ -1857,23 +1857,23 @@
         <v>0.221983883047421</v>
       </c>
       <c r="K25" s="17">
+        <f t="shared" si="5"/>
+        <v>0.778016116952579</v>
+      </c>
+      <c r="L25" s="17">
+        <f t="shared" si="0"/>
+        <v>0.13292374053597436</v>
+      </c>
+      <c r="M25" s="17">
+        <f t="shared" si="1"/>
+        <v>3.3813808131121469E-2</v>
+      </c>
+      <c r="N25" s="17">
         <f t="shared" si="2"/>
-        <v>0.778016116952579</v>
-      </c>
-      <c r="L25" s="17">
-        <f>($J25)*(E25+F25)</f>
-        <v>0.13292374053597436</v>
-      </c>
-      <c r="M25" s="17">
-        <f>($J25)*H25</f>
-        <v>3.3813808131121469E-2</v>
-      </c>
-      <c r="N25" s="17">
-        <f>($J25)*I25</f>
         <v>5.524633438032496E-2</v>
       </c>
       <c r="O25" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.45361431763261906</v>
       </c>
     </row>
@@ -1885,7 +1885,7 @@
         <v>2</v>
       </c>
       <c r="C26" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2014_Males</v>
       </c>
       <c r="D26" s="1">
@@ -1898,7 +1898,7 @@
         <v>0.25351807366854701</v>
       </c>
       <c r="G26" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.56455791284299095</v>
       </c>
       <c r="H26" s="15">
@@ -1911,23 +1911,23 @@
         <v>0.219101437049639</v>
       </c>
       <c r="K26" s="17">
+        <f t="shared" si="5"/>
+        <v>0.78089856295036097</v>
+      </c>
+      <c r="L26" s="17">
+        <f t="shared" si="0"/>
+        <v>0.12369545000164416</v>
+      </c>
+      <c r="M26" s="17">
+        <f t="shared" si="1"/>
+        <v>3.2689972288295441E-2</v>
+      </c>
+      <c r="N26" s="17">
         <f t="shared" si="2"/>
-        <v>0.78089856295036097</v>
-      </c>
-      <c r="L26" s="17">
-        <f>($J26)*(E26+F26)</f>
-        <v>0.12369545000164416</v>
-      </c>
-      <c r="M26" s="17">
-        <f>($J26)*H26</f>
-        <v>3.2689972288295441E-2</v>
-      </c>
-      <c r="N26" s="17">
-        <f>($J26)*I26</f>
         <v>6.2716014759699165E-2</v>
       </c>
       <c r="O26" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.44905592128163624</v>
       </c>
     </row>
@@ -1939,7 +1939,7 @@
         <v>2</v>
       </c>
       <c r="C27" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2015_Males</v>
       </c>
       <c r="D27" s="1">
@@ -1952,7 +1952,7 @@
         <v>0.239708838024764</v>
       </c>
       <c r="G27" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.53108990704190107</v>
       </c>
       <c r="H27" s="15">
@@ -1965,23 +1965,23 @@
         <v>0.215239223373136</v>
       </c>
       <c r="K27" s="17">
+        <f t="shared" si="5"/>
+        <v>0.78476077662686405</v>
+      </c>
+      <c r="L27" s="17">
+        <f t="shared" si="0"/>
+        <v>0.11431137913300977</v>
+      </c>
+      <c r="M27" s="17">
+        <f t="shared" si="1"/>
+        <v>3.1241858087975041E-2</v>
+      </c>
+      <c r="N27" s="17">
         <f t="shared" si="2"/>
-        <v>0.78476077662686405</v>
-      </c>
-      <c r="L27" s="17">
-        <f>($J27)*(E27+F27)</f>
-        <v>0.11431137913300977</v>
-      </c>
-      <c r="M27" s="17">
-        <f>($J27)*H27</f>
-        <v>3.1241858087975041E-2</v>
-      </c>
-      <c r="N27" s="17">
-        <f>($J27)*I27</f>
         <v>6.96859861521512E-2</v>
       </c>
       <c r="O27" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.45135265205831121</v>
       </c>
     </row>
@@ -1993,7 +1993,7 @@
         <v>2</v>
       </c>
       <c r="C28" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2016_Males</v>
       </c>
       <c r="D28" s="1">
@@ -2006,7 +2006,7 @@
         <v>0.23279106033573499</v>
       </c>
       <c r="G28" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.49262243631543801</v>
       </c>
       <c r="H28" s="15">
@@ -2019,23 +2019,23 @@
         <v>0.21028435146470698</v>
       </c>
       <c r="K28" s="17">
+        <f t="shared" si="5"/>
+        <v>0.78971564853529297</v>
+      </c>
+      <c r="L28" s="17">
+        <f t="shared" si="0"/>
+        <v>0.10359078953755579</v>
+      </c>
+      <c r="M28" s="17">
+        <f t="shared" si="1"/>
+        <v>3.0533819448862944E-2</v>
+      </c>
+      <c r="N28" s="17">
         <f t="shared" si="2"/>
-        <v>0.78971564853529297</v>
-      </c>
-      <c r="L28" s="17">
-        <f>($J28)*(E28+F28)</f>
-        <v>0.10359078953755579</v>
-      </c>
-      <c r="M28" s="17">
-        <f>($J28)*H28</f>
-        <v>3.0533819448862944E-2</v>
-      </c>
-      <c r="N28" s="17">
-        <f>($J28)*I28</f>
         <v>7.6159742478288023E-2</v>
       </c>
       <c r="O28" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -2047,7 +2047,7 @@
         <v>2</v>
       </c>
       <c r="C29" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2017_Males</v>
       </c>
       <c r="D29" s="1">
@@ -2060,7 +2060,7 @@
         <v>0.228395051237719</v>
       </c>
       <c r="G29" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.46619317780903702</v>
       </c>
       <c r="H29" s="15">
@@ -2073,23 +2073,23 @@
         <v>0.204258928542878</v>
       </c>
       <c r="K29" s="17">
+        <f t="shared" si="5"/>
+        <v>0.79574107145712203</v>
+      </c>
+      <c r="L29" s="17">
+        <f t="shared" si="0"/>
+        <v>9.5224118993273307E-2</v>
+      </c>
+      <c r="M29" s="17">
+        <f t="shared" si="1"/>
+        <v>3.0260566121936703E-2</v>
+      </c>
+      <c r="N29" s="17">
         <f t="shared" si="2"/>
-        <v>0.79574107145712203</v>
-      </c>
-      <c r="L29" s="17">
-        <f>($J29)*(E29+F29)</f>
-        <v>9.5224118993273307E-2</v>
-      </c>
-      <c r="M29" s="17">
-        <f>($J29)*H29</f>
-        <v>3.0260566121936703E-2</v>
-      </c>
-      <c r="N29" s="17">
-        <f>($J29)*I29</f>
         <v>7.8774243427667992E-2</v>
       </c>
       <c r="O29" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
         <v>2</v>
       </c>
       <c r="C30" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2018_Males</v>
       </c>
       <c r="D30" s="13"/>
@@ -2112,7 +2112,7 @@
         <v>0.226429313421633</v>
       </c>
       <c r="G30" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.45184097658241201</v>
       </c>
       <c r="H30" s="15">
@@ -2126,23 +2126,23 @@
         <v>0.19823350562104902</v>
       </c>
       <c r="K30" s="21">
+        <f t="shared" si="5"/>
+        <v>0.80176649437895098</v>
+      </c>
+      <c r="L30" s="21">
+        <f t="shared" si="0"/>
+        <v>8.957002077116985E-2</v>
+      </c>
+      <c r="M30" s="21">
+        <f t="shared" si="1"/>
+        <v>3.0376350145747067E-2</v>
+      </c>
+      <c r="N30" s="21">
         <f t="shared" si="2"/>
-        <v>0.80176649437895098</v>
-      </c>
-      <c r="L30" s="21">
-        <f>($J30)*(E30+F30)</f>
-        <v>8.957002077116985E-2</v>
-      </c>
-      <c r="M30" s="21">
-        <f>($J30)*H30</f>
-        <v>3.0376350145747067E-2</v>
-      </c>
-      <c r="N30" s="21">
-        <f>($J30)*I30</f>
         <v>7.8287134704131914E-2</v>
       </c>
       <c r="O30" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -2154,7 +2154,7 @@
         <v>3</v>
       </c>
       <c r="C31" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1990_Females</v>
       </c>
       <c r="D31" s="1">
@@ -2180,23 +2180,23 @@
         <v>9.9433347104298894E-2</v>
       </c>
       <c r="K31" s="17">
+        <f t="shared" si="5"/>
+        <v>0.90056665289570115</v>
+      </c>
+      <c r="L31" s="17">
+        <f t="shared" si="0"/>
+        <v>9.3003972418739325E-2</v>
+      </c>
+      <c r="M31" s="17">
+        <f t="shared" si="1"/>
+        <v>6.429374685559465E-3</v>
+      </c>
+      <c r="N31" s="17">
         <f t="shared" si="2"/>
-        <v>0.90056665289570115</v>
-      </c>
-      <c r="L31" s="17">
-        <f>($J31)*(E31+F31)</f>
-        <v>9.3003972418739325E-2</v>
-      </c>
-      <c r="M31" s="17">
-        <f>($J31)*H31</f>
-        <v>6.429374685559465E-3</v>
-      </c>
-      <c r="N31" s="17">
-        <f>($J31)*I31</f>
         <v>0</v>
       </c>
       <c r="O31" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P31" s="9"/>
@@ -2209,7 +2209,7 @@
         <v>3</v>
       </c>
       <c r="C32" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1991_Females</v>
       </c>
       <c r="D32" s="1">
@@ -2222,7 +2222,7 @@
         <v>0.212489431279096</v>
       </c>
       <c r="G32" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.92803855014535408</v>
       </c>
       <c r="H32" s="15">
@@ -2235,23 +2235,23 @@
         <v>0.12557594422916002</v>
       </c>
       <c r="K32" s="17">
+        <f t="shared" si="5"/>
+        <v>0.87442405577084004</v>
+      </c>
+      <c r="L32" s="17">
+        <f t="shared" si="0"/>
+        <v>0.1165393172155635</v>
+      </c>
+      <c r="M32" s="17">
+        <f t="shared" si="1"/>
+        <v>9.0366270135963586E-3</v>
+      </c>
+      <c r="N32" s="17">
         <f t="shared" si="2"/>
-        <v>0.87442405577084004</v>
-      </c>
-      <c r="L32" s="17">
-        <f>($J32)*(E32+F32)</f>
-        <v>0.1165393172155635</v>
-      </c>
-      <c r="M32" s="17">
-        <f>($J32)*H32</f>
-        <v>9.0366270135963586E-3</v>
-      </c>
-      <c r="N32" s="17">
-        <f>($J32)*I32</f>
         <v>0</v>
       </c>
       <c r="O32" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -2263,7 +2263,7 @@
         <v>3</v>
       </c>
       <c r="C33" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1992_Females</v>
       </c>
       <c r="D33" s="1">
@@ -2276,7 +2276,7 @@
         <v>0.22605009693771</v>
       </c>
       <c r="G33" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.91949393157855308</v>
       </c>
       <c r="H33" s="15">
@@ -2289,23 +2289,23 @@
         <v>0.153506697247382</v>
       </c>
       <c r="K33" s="17">
+        <f t="shared" si="5"/>
+        <v>0.84649330275261803</v>
+      </c>
+      <c r="L33" s="17">
+        <f t="shared" si="0"/>
+        <v>0.14114847657563392</v>
+      </c>
+      <c r="M33" s="17">
+        <f t="shared" si="1"/>
+        <v>1.2358220671748469E-2</v>
+      </c>
+      <c r="N33" s="17">
         <f t="shared" si="2"/>
-        <v>0.84649330275261803</v>
-      </c>
-      <c r="L33" s="17">
-        <f>($J33)*(E33+F33)</f>
-        <v>0.14114847657563392</v>
-      </c>
-      <c r="M33" s="17">
-        <f>($J33)*H33</f>
-        <v>1.2358220671748469E-2</v>
-      </c>
-      <c r="N33" s="17">
-        <f>($J33)*I33</f>
         <v>0</v>
       </c>
       <c r="O33" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -2317,7 +2317,7 @@
         <v>3</v>
       </c>
       <c r="C34" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1993_Females</v>
       </c>
       <c r="D34" s="1">
@@ -2330,7 +2330,7 @@
         <v>0.239462849248432</v>
       </c>
       <c r="G34" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.90997361422033596</v>
       </c>
       <c r="H34" s="15">
@@ -2343,23 +2343,23 @@
         <v>0.18235048166840598</v>
       </c>
       <c r="K34" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.81764951833159405</v>
       </c>
       <c r="L34" s="17">
-        <f>($J34)*(E34+F34)</f>
+        <f t="shared" ref="L34:L59" si="7">($J34)*(E34+F34)</f>
         <v>0.1659341268586185</v>
       </c>
       <c r="M34" s="17">
-        <f>($J34)*H34</f>
+        <f t="shared" ref="M34:M59" si="8">($J34)*H34</f>
         <v>1.6416354809787592E-2</v>
       </c>
       <c r="N34" s="17">
-        <f>($J34)*I34</f>
+        <f t="shared" ref="N34:N59" si="9">($J34)*I34</f>
         <v>0</v>
       </c>
       <c r="O34" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -2371,7 +2371,7 @@
         <v>3</v>
       </c>
       <c r="C35" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1994_Females</v>
       </c>
       <c r="D35" s="1">
@@ -2384,7 +2384,7 @@
         <v>0.252256546936378</v>
       </c>
       <c r="G35" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.89975150200380705</v>
       </c>
       <c r="H35" s="15">
@@ -2397,23 +2397,23 @@
         <v>0.211301339701394</v>
       </c>
       <c r="K35" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.78869866029860602</v>
       </c>
       <c r="L35" s="17">
-        <f>($J35)*(E35+F35)</f>
+        <f t="shared" si="7"/>
         <v>0.19011869777174592</v>
       </c>
       <c r="M35" s="17">
-        <f>($J35)*H35</f>
+        <f t="shared" si="8"/>
         <v>2.1182641929648093E-2</v>
       </c>
       <c r="N35" s="17">
-        <f>($J35)*I35</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O35" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -2425,7 +2425,7 @@
         <v>3</v>
       </c>
       <c r="C36" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1995_Females</v>
       </c>
       <c r="D36" s="1">
@@ -2438,7 +2438,7 @@
         <v>0.26412138820602199</v>
       </c>
       <c r="G36" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.88908913725800898</v>
       </c>
       <c r="H36" s="15">
@@ -2451,23 +2451,23 @@
         <v>0.23967797552495401</v>
       </c>
       <c r="K36" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.76032202447504593</v>
       </c>
       <c r="L36" s="17">
-        <f>($J36)*(E36+F36)</f>
+        <f t="shared" si="7"/>
         <v>0.21309508447922756</v>
       </c>
       <c r="M36" s="17">
-        <f>($J36)*H36</f>
+        <f t="shared" si="8"/>
         <v>2.6582891045726691E-2</v>
       </c>
       <c r="N36" s="17">
-        <f>($J36)*I36</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O36" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -2479,7 +2479,7 @@
         <v>3</v>
       </c>
       <c r="C37" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1996_Females</v>
       </c>
       <c r="D37" s="1">
@@ -2492,7 +2492,7 @@
         <v>0.27628526853864099</v>
       </c>
       <c r="G37" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.87757753019279494</v>
       </c>
       <c r="H37" s="15">
@@ -2505,23 +2505,23 @@
         <v>0.26551864486830301</v>
       </c>
       <c r="K37" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.73448135513169699</v>
       </c>
       <c r="L37" s="17">
-        <f>($J37)*(E37+F37)</f>
+        <f t="shared" si="7"/>
         <v>0.23301319658366318</v>
       </c>
       <c r="M37" s="17">
-        <f>($J37)*H37</f>
+        <f t="shared" si="8"/>
         <v>3.2505448284639811E-2</v>
       </c>
       <c r="N37" s="17">
-        <f>($J37)*I37</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O37" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -2533,7 +2533,7 @@
         <v>3</v>
       </c>
       <c r="C38" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1997_Females</v>
       </c>
       <c r="D38" s="1">
@@ -2546,7 +2546,7 @@
         <v>0.28890705769869302</v>
       </c>
       <c r="G38" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.86498734124764609</v>
       </c>
       <c r="H38" s="15">
@@ -2559,23 +2559,23 @@
         <v>0.28735209214743801</v>
       </c>
       <c r="K38" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.71264790785256205</v>
       </c>
       <c r="L38" s="17">
-        <f>($J38)*(E38+F38)</f>
+        <f t="shared" si="7"/>
         <v>0.24855592218856101</v>
       </c>
       <c r="M38" s="17">
-        <f>($J38)*H38</f>
+        <f t="shared" si="8"/>
         <v>3.8796169958877025E-2</v>
       </c>
       <c r="N38" s="17">
-        <f>($J38)*I38</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O38" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -2587,7 +2587,7 @@
         <v>3</v>
       </c>
       <c r="C39" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1998_Females</v>
       </c>
       <c r="D39" s="1">
@@ -2600,7 +2600,7 @@
         <v>0.300824841588756</v>
       </c>
       <c r="G39" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.85168557830436697</v>
       </c>
       <c r="H39" s="15">
@@ -2613,23 +2613,23 @@
         <v>0.305074002500346</v>
       </c>
       <c r="K39" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.694925997499654</v>
       </c>
       <c r="L39" s="17">
-        <f>($J39)*(E39+F39)</f>
+        <f t="shared" si="7"/>
         <v>0.2598271282451351</v>
       </c>
       <c r="M39" s="17">
-        <f>($J39)*H39</f>
+        <f t="shared" si="8"/>
         <v>4.5246874255210609E-2</v>
       </c>
       <c r="N39" s="17">
-        <f>($J39)*I39</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O39" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -2641,7 +2641,7 @@
         <v>3</v>
       </c>
       <c r="C40" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1999_Females</v>
       </c>
       <c r="D40" s="1">
@@ -2654,7 +2654,7 @@
         <v>0.31141864672625902</v>
       </c>
       <c r="G40" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.83804358453533911</v>
       </c>
       <c r="H40" s="15">
@@ -2667,23 +2667,23 @@
         <v>0.31871553007592301</v>
       </c>
       <c r="K40" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.68128446992407699</v>
       </c>
       <c r="L40" s="17">
-        <f>($J40)*(E40+F40)</f>
+        <f t="shared" si="7"/>
         <v>0.26709750527190723</v>
       </c>
       <c r="M40" s="17">
-        <f>($J40)*H40</f>
+        <f t="shared" si="8"/>
         <v>5.1618024804016484E-2</v>
       </c>
       <c r="N40" s="17">
-        <f>($J40)*I40</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O40" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -2695,7 +2695,7 @@
         <v>3</v>
       </c>
       <c r="C41" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2000_Females</v>
       </c>
       <c r="D41" s="1">
@@ -2708,7 +2708,7 @@
         <v>0.32044593234289098</v>
       </c>
       <c r="G41" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.82440600144881804</v>
       </c>
       <c r="H41" s="15">
@@ -2721,23 +2721,23 @@
         <v>0.32845241646183704</v>
       </c>
       <c r="K41" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.67154758353816302</v>
       </c>
       <c r="L41" s="17">
-        <f>($J41)*(E41+F41)</f>
+        <f t="shared" si="7"/>
         <v>0.27077814332150502</v>
       </c>
       <c r="M41" s="17">
-        <f>($J41)*H41</f>
+        <f t="shared" si="8"/>
         <v>5.7674273140332695E-2</v>
       </c>
       <c r="N41" s="17">
-        <f>($J41)*I41</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O41" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -2749,7 +2749,7 @@
         <v>3</v>
       </c>
       <c r="C42" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2001_Females</v>
       </c>
       <c r="D42" s="1">
@@ -2762,7 +2762,7 @@
         <v>0.326451887021033</v>
       </c>
       <c r="G42" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.81192731095260395</v>
       </c>
       <c r="H42" s="15">
@@ -2775,23 +2775,23 @@
         <v>0.33612223578562994</v>
       </c>
       <c r="K42" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.66387776421437006</v>
       </c>
       <c r="L42" s="17">
-        <f>($J42)*(E42+F42)</f>
+        <f t="shared" si="7"/>
         <v>0.27290682305280362</v>
       </c>
       <c r="M42" s="17">
-        <f>($J42)*H42</f>
+        <f t="shared" si="8"/>
         <v>6.3215412732825965E-2</v>
       </c>
       <c r="N42" s="17">
-        <f>($J42)*I42</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O42" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -2803,7 +2803,7 @@
         <v>3</v>
       </c>
       <c r="C43" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2002_Females</v>
       </c>
       <c r="D43" s="1">
@@ -2816,7 +2816,7 @@
         <v>0.32957712201662798</v>
       </c>
       <c r="G43" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.80121163335912904</v>
       </c>
       <c r="H43" s="15">
@@ -2829,23 +2829,23 @@
         <v>0.34260206316106695</v>
       </c>
       <c r="K43" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.65739793683893311</v>
       </c>
       <c r="L43" s="17">
-        <f>($J43)*(E43+F43)</f>
+        <f t="shared" si="7"/>
         <v>0.27449675861748596</v>
       </c>
       <c r="M43" s="17">
-        <f>($J43)*H43</f>
+        <f t="shared" si="8"/>
         <v>6.8105304543580672E-2</v>
       </c>
       <c r="N43" s="17">
-        <f>($J43)*I43</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O43" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -2857,7 +2857,7 @@
         <v>3</v>
       </c>
       <c r="C44" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2003_Females</v>
       </c>
       <c r="D44" s="1">
@@ -2870,7 +2870,7 @@
         <v>0.33089205297015001</v>
       </c>
       <c r="G44" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.79227299617509894</v>
       </c>
       <c r="H44" s="15">
@@ -2883,23 +2883,23 @@
         <v>0.34803129455376897</v>
       </c>
       <c r="K44" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.65196870544623109</v>
       </c>
       <c r="L44" s="17">
-        <f>($J44)*(E44+F44)</f>
+        <f t="shared" si="7"/>
         <v>0.27573579649881291</v>
       </c>
       <c r="M44" s="17">
-        <f>($J44)*H44</f>
+        <f t="shared" si="8"/>
         <v>7.2295498054956359E-2</v>
       </c>
       <c r="N44" s="17">
-        <f>($J44)*I44</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O44" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
         <v>3</v>
       </c>
       <c r="C45" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2004_Females</v>
       </c>
       <c r="D45" s="1">
@@ -2924,7 +2924,7 @@
         <v>0.33110731754779599</v>
       </c>
       <c r="G45" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.78470700937932492</v>
       </c>
       <c r="H45" s="15">
@@ -2937,23 +2937,23 @@
         <v>0.35261528699677597</v>
       </c>
       <c r="K45" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.64738471300322398</v>
       </c>
       <c r="L45" s="17">
-        <f>($J45)*(E45+F45)</f>
+        <f t="shared" si="7"/>
         <v>0.27669968732067241</v>
       </c>
       <c r="M45" s="17">
-        <f>($J45)*H45</f>
+        <f t="shared" si="8"/>
         <v>7.4772672855920333E-2</v>
       </c>
       <c r="N45" s="17">
-        <f>($J45)*I45</f>
+        <f t="shared" si="9"/>
         <v>1.142926820183676E-3</v>
       </c>
       <c r="O45" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -2965,7 +2965,7 @@
         <v>3</v>
       </c>
       <c r="C46" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2005_Females</v>
       </c>
       <c r="D46" s="1">
@@ -2978,7 +2978,7 @@
         <v>0.33038295905034198</v>
       </c>
       <c r="G46" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.77717677391496198</v>
       </c>
       <c r="H46" s="15">
@@ -2991,23 +2991,23 @@
         <v>0.35668532026927402</v>
       </c>
       <c r="K46" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.64331467973072598</v>
       </c>
       <c r="L46" s="17">
-        <f>($J46)*(E46+F46)</f>
+        <f t="shared" si="7"/>
         <v>0.27720754650969937</v>
       </c>
       <c r="M46" s="17">
-        <f>($J46)*H46</f>
+        <f t="shared" si="8"/>
         <v>7.4106672459255743E-2</v>
       </c>
       <c r="N46" s="17">
-        <f>($J46)*I46</f>
+        <f t="shared" si="9"/>
         <v>5.371101300318747E-3</v>
       </c>
       <c r="O46" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -3019,7 +3019,7 @@
         <v>3</v>
       </c>
       <c r="C47" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2006_Females</v>
       </c>
       <c r="D47" s="1">
@@ -3032,7 +3032,7 @@
         <v>0.32849080352432902</v>
       </c>
       <c r="G47" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.76776813306295799</v>
       </c>
       <c r="H47" s="15">
@@ -3045,23 +3045,23 @@
         <v>0.36061631026920205</v>
       </c>
       <c r="K47" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.63938368973079795</v>
       </c>
       <c r="L47" s="17">
-        <f>($J47)*(E47+F47)</f>
+        <f t="shared" si="7"/>
         <v>0.27686971128743765</v>
       </c>
       <c r="M47" s="17">
-        <f>($J47)*H47</f>
+        <f t="shared" si="8"/>
         <v>6.9983063285064512E-2</v>
       </c>
       <c r="N47" s="17">
-        <f>($J47)*I47</f>
+        <f t="shared" si="9"/>
         <v>1.3763535696700012E-2</v>
       </c>
       <c r="O47" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -3073,7 +3073,7 @@
         <v>3</v>
       </c>
       <c r="C48" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2007_Females</v>
       </c>
       <c r="D48" s="1">
@@ -3086,7 +3086,7 @@
         <v>0.325105722091521</v>
       </c>
       <c r="G48" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.75485040270790504</v>
       </c>
       <c r="H48" s="15">
@@ -3099,23 +3099,23 @@
         <v>0.364697007462506</v>
       </c>
       <c r="K48" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.635302992537494</v>
       </c>
       <c r="L48" s="17">
-        <f>($J48)*(E48+F48)</f>
+        <f t="shared" si="7"/>
         <v>0.27529168294944051</v>
       </c>
       <c r="M48" s="17">
-        <f>($J48)*H48</f>
+        <f t="shared" si="8"/>
         <v>6.3015809674718606E-2</v>
       </c>
       <c r="N48" s="17">
-        <f>($J48)*I48</f>
+        <f t="shared" si="9"/>
         <v>2.6389514838347373E-2</v>
       </c>
       <c r="O48" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -3127,7 +3127,7 @@
         <v>3</v>
       </c>
       <c r="C49" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2008_Females</v>
       </c>
       <c r="D49" s="1">
@@ -3140,7 +3140,7 @@
         <v>0.32008457756918701</v>
       </c>
       <c r="G49" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.73781224154483493</v>
       </c>
       <c r="H49" s="15">
@@ -3153,23 +3153,23 @@
         <v>0.369017200804857</v>
       </c>
       <c r="K49" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.630982799195143</v>
       </c>
       <c r="L49" s="17">
-        <f>($J49)*(E49+F49)</f>
+        <f t="shared" si="7"/>
         <v>0.272265408094432</v>
       </c>
       <c r="M49" s="17">
-        <f>($J49)*H49</f>
+        <f t="shared" si="8"/>
         <v>5.5556522001118269E-2</v>
       </c>
       <c r="N49" s="17">
-        <f>($J49)*I49</f>
+        <f t="shared" si="9"/>
         <v>4.1195270709307071E-2</v>
       </c>
       <c r="O49" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -3181,7 +3181,7 @@
         <v>3</v>
       </c>
       <c r="C50" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2009_Females</v>
       </c>
       <c r="D50" s="1">
@@ -3194,7 +3194,7 @@
         <v>0.31370925100939101</v>
       </c>
       <c r="G50" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.71769152919231605</v>
       </c>
       <c r="H50" s="15">
@@ -3207,23 +3207,23 @@
         <v>0.373388058599324</v>
       </c>
       <c r="K50" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.626611941400676</v>
       </c>
       <c r="L50" s="17">
-        <f>($J50)*(E50+F50)</f>
+        <f t="shared" si="7"/>
         <v>0.26797744675829893</v>
       </c>
       <c r="M50" s="17">
-        <f>($J50)*H50</f>
+        <f t="shared" si="8"/>
         <v>5.0008952736298178E-2</v>
       </c>
       <c r="N50" s="17">
-        <f>($J50)*I50</f>
+        <f t="shared" si="9"/>
         <v>5.5401659104726504E-2</v>
       </c>
       <c r="O50" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -3235,7 +3235,7 @@
         <v>3</v>
       </c>
       <c r="C51" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2010_Females</v>
       </c>
       <c r="D51" s="1">
@@ -3248,7 +3248,7 @@
         <v>0.30636900775173098</v>
       </c>
       <c r="G51" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.69587278537392505</v>
       </c>
       <c r="H51" s="15">
@@ -3261,23 +3261,23 @@
         <v>0.37757677764883196</v>
       </c>
       <c r="K51" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.62242322235116809</v>
       </c>
       <c r="L51" s="17">
-        <f>($J51)*(E51+F51)</f>
+        <f t="shared" si="7"/>
         <v>0.26274540395500384</v>
       </c>
       <c r="M51" s="17">
-        <f>($J51)*H51</f>
+        <f t="shared" si="8"/>
         <v>4.5073364440322138E-2</v>
       </c>
       <c r="N51" s="17">
-        <f>($J51)*I51</f>
+        <f t="shared" si="9"/>
         <v>6.9758009253505976E-2</v>
       </c>
       <c r="O51" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -3289,7 +3289,7 @@
         <v>3</v>
       </c>
       <c r="C52" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2011_Females</v>
       </c>
       <c r="D52" s="1">
@@ -3302,7 +3302,7 @@
         <v>0.288432862818369</v>
       </c>
       <c r="G52" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.66283522733505307</v>
       </c>
       <c r="H52" s="15">
@@ -3315,23 +3315,23 @@
         <v>0.38154158345092098</v>
       </c>
       <c r="K52" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.61845841654907896</v>
       </c>
       <c r="L52" s="17">
-        <f>($J52)*(E52+F52)</f>
+        <f t="shared" si="7"/>
         <v>0.25289920220446732</v>
       </c>
       <c r="M52" s="17">
-        <f>($J52)*H52</f>
+        <f t="shared" si="8"/>
         <v>4.1184165517928979E-2</v>
       </c>
       <c r="N52" s="17">
-        <f>($J52)*I52</f>
+        <f t="shared" si="9"/>
         <v>8.7458215728525454E-2</v>
       </c>
       <c r="O52" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.43515017145063506</v>
       </c>
     </row>
@@ -3343,7 +3343,7 @@
         <v>3</v>
       </c>
       <c r="C53" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2012_Females</v>
       </c>
       <c r="D53" s="1">
@@ -3356,7 +3356,7 @@
         <v>0.234859377925632</v>
       </c>
       <c r="G53" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.59406861791259802</v>
       </c>
       <c r="H53" s="15">
@@ -3369,23 +3369,23 @@
         <v>0.38455017061220703</v>
       </c>
       <c r="K53" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.61544982938779302</v>
       </c>
       <c r="L53" s="17">
-        <f>($J53)*(E53+F53)</f>
+        <f t="shared" si="7"/>
         <v>0.22844918837364761</v>
       </c>
       <c r="M53" s="17">
-        <f>($J53)*H53</f>
+        <f t="shared" si="8"/>
         <v>4.2268786597179163E-2</v>
       </c>
       <c r="N53" s="17">
-        <f>($J53)*I53</f>
+        <f t="shared" si="9"/>
         <v>0.11383219564137952</v>
       </c>
       <c r="O53" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.3953404890345269</v>
       </c>
     </row>
@@ -3397,7 +3397,7 @@
         <v>3</v>
       </c>
       <c r="C54" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2013_Females</v>
       </c>
       <c r="D54" s="1">
@@ -3410,7 +3410,7 @@
         <v>0.195679138403859</v>
       </c>
       <c r="G54" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.53904121340050304</v>
       </c>
       <c r="H54" s="15">
@@ -3423,23 +3423,23 @@
         <v>0.38660488800408599</v>
       </c>
       <c r="K54" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.61339511199591401</v>
       </c>
       <c r="L54" s="17">
-        <f>($J54)*(E54+F54)</f>
+        <f t="shared" si="7"/>
         <v>0.20839596793628809</v>
       </c>
       <c r="M54" s="17">
-        <f>($J54)*H54</f>
+        <f t="shared" si="8"/>
         <v>3.9151931103524523E-2</v>
       </c>
       <c r="N54" s="17">
-        <f>($J54)*I54</f>
+        <f t="shared" si="9"/>
         <v>0.13905698896427299</v>
       </c>
       <c r="O54" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.3630133161236988</v>
       </c>
     </row>
@@ -3451,7 +3451,7 @@
         <v>3</v>
       </c>
       <c r="C55" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2014_Females</v>
       </c>
       <c r="D55" s="1">
@@ -3464,7 +3464,7 @@
         <v>0.164336276519503</v>
       </c>
       <c r="G55" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.49088232108614999</v>
       </c>
       <c r="H55" s="15">
@@ -3477,23 +3477,23 @@
         <v>0.38807335554282801</v>
       </c>
       <c r="K55" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.61192664445717204</v>
       </c>
       <c r="L55" s="17">
-        <f>($J55)*(E55+F55)</f>
+        <f t="shared" si="7"/>
         <v>0.19049834952055414</v>
       </c>
       <c r="M55" s="17">
-        <f>($J55)*H55</f>
+        <f t="shared" si="8"/>
         <v>3.4126335281400987E-2</v>
       </c>
       <c r="N55" s="17">
-        <f>($J55)*I55</f>
+        <f t="shared" si="9"/>
         <v>0.16344867074087252</v>
       </c>
       <c r="O55" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.33477733758242628</v>
       </c>
     </row>
@@ -3505,7 +3505,7 @@
         <v>3</v>
       </c>
       <c r="C56" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2015_Females</v>
       </c>
       <c r="D56" s="1">
@@ -3518,7 +3518,7 @@
         <v>0.14187358584519999</v>
       </c>
       <c r="G56" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.44302731969667597</v>
       </c>
       <c r="H56" s="15">
@@ -3531,23 +3531,23 @@
         <v>0.389101879903614</v>
       </c>
       <c r="K56" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.610898120096386</v>
       </c>
       <c r="L56" s="17">
-        <f>($J56)*(E56+F56)</f>
+        <f t="shared" si="7"/>
         <v>0.17238276294263602</v>
       </c>
       <c r="M56" s="17">
-        <f>($J56)*H56</f>
+        <f t="shared" si="8"/>
         <v>2.9107597145381876E-2</v>
       </c>
       <c r="N56" s="17">
-        <f>($J56)*I56</f>
+        <f t="shared" si="9"/>
         <v>0.18761151981559712</v>
       </c>
       <c r="O56" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.32023665254399086</v>
       </c>
     </row>
@@ -3559,7 +3559,7 @@
         <v>3</v>
       </c>
       <c r="C57" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2016_Females</v>
       </c>
       <c r="D57" s="1">
@@ -3572,7 +3572,7 @@
         <v>0.13396771756341999</v>
       </c>
       <c r="G57" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.38119659957032703</v>
       </c>
       <c r="H57" s="15">
@@ -3585,23 +3585,23 @@
         <v>0.38930014797651902</v>
       </c>
       <c r="K57" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.61069985202348098</v>
       </c>
       <c r="L57" s="17">
-        <f>($J57)*(E57+F57)</f>
+        <f t="shared" si="7"/>
         <v>0.14839989262087419</v>
       </c>
       <c r="M57" s="17">
-        <f>($J57)*H57</f>
+        <f t="shared" si="8"/>
         <v>2.7368410143781732E-2</v>
       </c>
       <c r="N57" s="17">
-        <f>($J57)*I57</f>
+        <f t="shared" si="9"/>
         <v>0.21353184521186386</v>
       </c>
       <c r="O57" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -3613,7 +3613,7 @@
         <v>3</v>
       </c>
       <c r="C58" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2017_Females</v>
       </c>
       <c r="D58" s="1">
@@ -3626,7 +3626,7 @@
         <v>0.12883578025783701</v>
       </c>
       <c r="G58" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.34408529758614403</v>
       </c>
       <c r="H58" s="15">
@@ -3639,23 +3639,23 @@
         <v>0.38833628944964699</v>
       </c>
       <c r="K58" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.61166371055035307</v>
       </c>
       <c r="L58" s="17">
-        <f>($J58)*(E58+F58)</f>
+        <f t="shared" si="7"/>
         <v>0.13362080771878074</v>
       </c>
       <c r="M58" s="17">
-        <f>($J58)*H58</f>
+        <f t="shared" si="8"/>
         <v>2.6995345499960445E-2</v>
       </c>
       <c r="N58" s="17">
-        <f>($J58)*I58</f>
+        <f t="shared" si="9"/>
         <v>0.22772013623090626</v>
       </c>
       <c r="O58" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -3667,7 +3667,7 @@
         <v>3</v>
       </c>
       <c r="C59" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2018_Females</v>
       </c>
       <c r="D59" s="22"/>
@@ -3678,7 +3678,7 @@
         <v>0.12712727954528999</v>
       </c>
       <c r="G59" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.32740489784813798</v>
       </c>
       <c r="H59" s="15">
@@ -3692,23 +3692,23 @@
         <v>0.38737243092277496</v>
       </c>
       <c r="K59" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.61262756907722504</v>
       </c>
       <c r="L59" s="21">
-        <f>($J59)*(E59+F59)</f>
+        <f t="shared" si="7"/>
         <v>0.12682763117545601</v>
       </c>
       <c r="M59" s="21">
-        <f>($J59)*H59</f>
+        <f t="shared" si="8"/>
         <v>2.7775199645053584E-2</v>
       </c>
       <c r="N59" s="21">
-        <f>($J59)*I59</f>
+        <f t="shared" si="9"/>
         <v>0.23276960010226641</v>
       </c>
       <c r="O59" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
